--- a/results_research_scopus_keywoards_1.xlsx
+++ b/results_research_scopus_keywoards_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politecnicobari-my.sharepoint.com/personal/f_signorile2_studenti_poliba_it/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politecnicobari-my.sharepoint.com/personal/f_signorile2_studenti_poliba_it/Documents/Desktop/scopus keywords 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23333C9C-4A93-4DC8-9C39-A522149FF770}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74D470FF-BA45-4733-B656-4EDF9ABEC0D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1922,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G1">
         <f>SUM(A:A)</f>
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2480,9 +2480,9 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33">
@@ -3307,9 +3307,9 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C82">
@@ -3341,9 +3341,9 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C84">
@@ -3491,9 +3491,9 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0</v>
-      </c>
-      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C93">
@@ -3729,9 +3729,9 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C107">

--- a/results_research_scopus_keywoards_1.xlsx
+++ b/results_research_scopus_keywoards_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politecnicobari-my.sharepoint.com/personal/f_signorile2_studenti_poliba_it/Documents/Desktop/scopus keywords 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1052" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49A810F3-9DE2-4CAD-B591-9366E149D720}"/>
+  <xr:revisionPtr revIDLastSave="1216" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E4808E-29F5-430C-953B-4280B8DF2162}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1539">
   <si>
     <t>Title</t>
   </si>
@@ -4657,13 +4657,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4694,6 +4700,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4704,18 +4716,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5052,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5089,7 +5105,7 @@
       </c>
       <c r="G1">
         <f>SUM(A:A)</f>
-        <v>384</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5474,9 +5490,9 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C25">
@@ -5502,9 +5518,9 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C27">
@@ -5591,9 +5607,9 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>766</v>
       </c>
       <c r="C32">
@@ -5612,9 +5628,9 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>763</v>
       </c>
       <c r="C33">
@@ -5854,7 +5870,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1485</v>
       </c>
       <c r="C47">
@@ -5872,7 +5891,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1468</v>
       </c>
       <c r="C48">
@@ -5890,7 +5912,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="C49">
@@ -6027,7 +6052,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>772</v>
       </c>
       <c r="C57">
@@ -6060,7 +6088,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C59">
@@ -6078,7 +6109,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="C60">
@@ -7263,7 +7297,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="C127">
@@ -7281,7 +7315,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>1517</v>
       </c>
       <c r="C128">
@@ -7296,7 +7330,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1514</v>
       </c>
       <c r="C129">
@@ -7314,7 +7351,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="C130">
@@ -7332,7 +7372,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>827</v>
       </c>
       <c r="C131">
@@ -7350,7 +7390,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>841</v>
       </c>
       <c r="C132">
@@ -7368,7 +7408,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1494</v>
       </c>
       <c r="C133">
@@ -7386,7 +7429,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1347</v>
       </c>
       <c r="C134">
@@ -7404,7 +7450,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="C135">
@@ -7422,7 +7471,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>850</v>
       </c>
       <c r="C136">
@@ -7440,7 +7492,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C137">
@@ -7458,7 +7513,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>836</v>
       </c>
       <c r="C138">
@@ -7476,7 +7534,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="C139">
@@ -7491,7 +7552,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1476</v>
       </c>
       <c r="C140">
@@ -7792,7 +7856,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C158">
@@ -7810,7 +7877,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>898</v>
       </c>
       <c r="C159">
@@ -7828,7 +7898,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C160">
@@ -7846,7 +7919,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>1369</v>
       </c>
       <c r="C161">
@@ -7861,7 +7934,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>1389</v>
       </c>
       <c r="C162">
@@ -7879,7 +7955,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>1393</v>
       </c>
       <c r="C163">
@@ -7897,7 +7976,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>874</v>
       </c>
       <c r="C164">
@@ -7915,7 +7997,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C165">
@@ -7933,7 +8018,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>910</v>
       </c>
       <c r="C166">
@@ -7951,7 +8039,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="C167">
@@ -7969,7 +8060,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>1412</v>
       </c>
       <c r="C168">
@@ -7984,7 +8075,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>1416</v>
       </c>
       <c r="C169">
@@ -8002,7 +8093,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="C170">
@@ -8017,7 +8111,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B171" t="s">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="C171">
@@ -8035,7 +8132,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>895</v>
       </c>
       <c r="C172">
@@ -8257,7 +8354,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>880</v>
       </c>
       <c r="C185">
@@ -8275,7 +8375,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B186" t="s">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>936</v>
       </c>
       <c r="C186">
@@ -8293,7 +8396,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>1360</v>
       </c>
       <c r="C187">
@@ -8311,7 +8414,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>916</v>
       </c>
       <c r="C188">
@@ -8329,7 +8432,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>966</v>
       </c>
       <c r="C189">
@@ -8347,7 +8453,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B190" t="s">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="C190">
@@ -8362,7 +8471,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>1378</v>
       </c>
       <c r="C191">
@@ -8380,7 +8492,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="C192">
@@ -8397,8 +8512,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>913</v>
       </c>
       <c r="C193">
@@ -8415,8 +8533,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="2" t="s">
         <v>1406</v>
       </c>
       <c r="C194">
@@ -8433,8 +8551,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="C195">
@@ -8448,8 +8566,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="C196">
@@ -8466,8 +8587,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="C197">
@@ -8484,8 +8608,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="C198">
@@ -8502,8 +8629,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B199" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C199">
@@ -8520,8 +8650,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>948</v>
       </c>
       <c r="C200">
@@ -8538,8 +8671,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B201" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>945</v>
       </c>
       <c r="C201">
@@ -8556,8 +8692,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B202" t="s">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="2" t="s">
         <v>1440</v>
       </c>
       <c r="C202">
@@ -8571,8 +8707,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B203" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="2" t="s">
         <v>1442</v>
       </c>
       <c r="C203">
@@ -8589,8 +8725,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C204">
@@ -8607,8 +8746,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="C205">
@@ -8625,8 +8767,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="2" t="s">
         <v>954</v>
       </c>
       <c r="C206">
@@ -8643,8 +8785,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B207" t="s">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>1454</v>
       </c>
       <c r="C207">
@@ -8661,8 +8806,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B208" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="C208">
@@ -8935,7 +9083,10 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B224" t="s">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C224">
@@ -8952,8 +9103,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="C225">
@@ -8970,8 +9124,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>1011</v>
       </c>
       <c r="C226">
@@ -8988,8 +9145,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>978</v>
       </c>
       <c r="C227">
@@ -9006,8 +9166,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="C228">
@@ -9024,8 +9187,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>1014</v>
       </c>
       <c r="C229">
@@ -9042,8 +9208,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="C230">
@@ -9060,8 +9229,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="C231">
@@ -9078,8 +9250,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="C232">
@@ -9096,8 +9271,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C233">
@@ -9114,8 +9292,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B234" t="s">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C234">
@@ -9132,8 +9313,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="C235">
@@ -9150,8 +9334,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C236">
@@ -9168,8 +9355,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="C237">
@@ -9186,8 +9376,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="C238">
@@ -9204,8 +9397,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B239" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>1343</v>
       </c>
       <c r="C239">
@@ -9222,8 +9418,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C240">
@@ -9240,8 +9439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B241" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="C241">
@@ -9258,8 +9460,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B242" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>990</v>
       </c>
       <c r="C242">
@@ -9276,8 +9481,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="C243">
@@ -9293,9 +9501,15 @@
         <f>IF(MATCH(B243,'scopus results'!B:B, 0), 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
+      <c r="H243" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>1358</v>
       </c>
       <c r="C244">
@@ -9312,8 +9526,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>1374</v>
       </c>
       <c r="C245">
@@ -9330,8 +9547,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B246" t="s">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="C246">
@@ -9348,8 +9568,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>996</v>
       </c>
       <c r="C247">
@@ -9366,8 +9589,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C248">
@@ -9384,8 +9610,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B249" t="s">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="C249">
@@ -9402,8 +9631,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B250" t="s">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="C250">
@@ -9420,8 +9652,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C251">
@@ -9438,8 +9673,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B252" t="s">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="C252">
@@ -9456,8 +9694,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B253" s="2" t="s">
         <v>1424</v>
       </c>
       <c r="C253">
@@ -9474,8 +9712,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="C254">
@@ -9492,8 +9733,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="C255">
@@ -9510,8 +9754,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B256" s="2" t="s">
         <v>1458</v>
       </c>
       <c r="C256">
@@ -11007,7 +11251,7 @@
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <f>SUM(A2:A333)</f>
-        <v>192</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -11022,8 +11266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C679FFB-D134-431C-9904-2677EE2B5C76}">
   <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11195,24 +11439,24 @@
       <c r="A5" t="s">
         <v>575</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2004</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/BF02978536","http://dx.doi.org/10.1007/BF02978536")</f>
         <v>http://dx.doi.org/10.1007/BF02978536</v>
       </c>
-      <c r="F5" s="2" t="e">
+      <c r="F5" s="1" t="e">
         <f>IF(MATCH(B5,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="2" t="e">
+      <c r="G5" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -12362,23 +12606,23 @@
       <c r="A52" t="s">
         <v>614</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>2016</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F52" s="2" t="e">
+      <c r="F52" s="1" t="e">
         <f>IF(MATCH(B52,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="2" t="e">
+      <c r="G52" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -12994,7 +13238,7 @@
       <c r="D77" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E77" s="2" t="str">
+      <c r="E77" s="7" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1007/978-3-319-64641-1_20","http://dx.doi.org/10.1007/978-3-319-64641-1_20")</f>
         <v>http://dx.doi.org/10.1007/978-3-319-64641-1_20</v>
       </c>
@@ -13308,24 +13552,24 @@
       <c r="A90" t="s">
         <v>642</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>2019</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="E90" s="2" t="str">
+      <c r="E90" s="1" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1504/IJSA.2019.101748","http://dx.doi.org/10.1504/IJSA.2019.101748")</f>
         <v>http://dx.doi.org/10.1504/IJSA.2019.101748</v>
       </c>
-      <c r="F90" s="2" t="e">
+      <c r="F90" s="1" t="e">
         <f>IF(MATCH(B90,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="2" t="e">
+      <c r="G90" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -15789,7 +16033,7 @@
       <c r="D189" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="E189" s="2" t="str">
+      <c r="E189" s="7" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1590/0001-3765202220201365","http://dx.doi.org/10.1590/0001-3765202220201365")</f>
         <v>http://dx.doi.org/10.1590/0001-3765202220201365</v>
       </c>
@@ -16529,24 +16773,24 @@
       <c r="A219" t="s">
         <v>1046</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="1">
         <v>2022</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="E219" s="2" t="str">
+      <c r="E219" s="1" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1016/j.jclepro.2022.133243","http://dx.doi.org/10.1016/j.jclepro.2022.133243")</f>
         <v>http://dx.doi.org/10.1016/j.jclepro.2022.133243</v>
       </c>
-      <c r="F219" s="2" t="e">
+      <c r="F219" s="1" t="e">
         <f>IF(MATCH(B219,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G219" s="2" t="e">
+      <c r="G219" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/results_research_scopus_keywoards_1.xlsx
+++ b/results_research_scopus_keywoards_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politecnicobari-my.sharepoint.com/personal/f_signorile2_studenti_poliba_it/Documents/Desktop/scopus keywords 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1216" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E4808E-29F5-430C-953B-4280B8DF2162}"/>
+  <xr:revisionPtr revIDLastSave="1299" documentId="13_ncr:1_{9994D86B-CAFE-4D35-B304-E4420B10AAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEC070D-D26D-4CC6-AE1A-B613F96F662A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1541">
   <si>
     <t>Title</t>
   </si>
@@ -4651,6 +4651,12 @@
   </si>
   <si>
     <t>retracted</t>
+  </si>
+  <si>
+    <t>è in cinese</t>
+  </si>
+  <si>
+    <t>è in polacco</t>
   </si>
 </sst>
 </file>
@@ -4720,7 +4726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4729,6 +4735,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4745,10 +4752,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5070,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5108,7 @@
       </c>
       <c r="G1">
         <f>SUM(A:A)</f>
-        <v>542</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5128,9 +5131,9 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C3">
@@ -5277,9 +5280,9 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C12">
@@ -5420,9 +5423,9 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C21">
@@ -5573,9 +5576,9 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C30">
@@ -5665,7 +5668,7 @@
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35">
@@ -5697,9 +5700,9 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C37">
@@ -5782,9 +5785,9 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C42">
@@ -5968,9 +5971,9 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C52">
@@ -5979,7 +5982,7 @@
       <c r="D52" t="s">
         <v>260</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="8" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6079,7 +6082,7 @@
       <c r="C58">
         <v>2015</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="8" t="s">
         <v>1511</v>
       </c>
       <c r="F58">
@@ -6301,9 +6304,9 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0</v>
-      </c>
-      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C71">
@@ -6368,7 +6371,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="2" t="s">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>787</v>
       </c>
       <c r="C75">
@@ -6506,9 +6512,9 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C83">
@@ -6807,9 +6813,9 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C100">
@@ -6993,9 +6999,9 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>1488</v>
       </c>
       <c r="C110">
@@ -7297,6 +7303,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>1520</v>
       </c>
@@ -7315,7 +7324,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="C128">
@@ -7390,7 +7402,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="2" t="s">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C132">
@@ -8075,7 +8090,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="2" t="s">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>1416</v>
       </c>
       <c r="C169">
@@ -8414,7 +8432,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="2" t="s">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>916</v>
       </c>
       <c r="C188">
@@ -9695,7 +9716,10 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B253" s="2" t="s">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="C253">
@@ -10012,9 +10036,9 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0</v>
-      </c>
-      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C271">
@@ -10044,7 +10068,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0</v>
       </c>
@@ -10061,7 +10085,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -10078,7 +10102,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -10095,7 +10119,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -10112,7 +10136,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>0</v>
       </c>
@@ -10129,7 +10153,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -10146,7 +10170,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -10163,7 +10187,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -10184,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -10205,8 +10229,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B282" s="2" t="s">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1270</v>
       </c>
       <c r="C282">
@@ -10222,8 +10249,11 @@
         <f>IF(MATCH(B282,'scopus results'!B:B, 0), 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -10244,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -10265,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -10283,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -10304,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -10325,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -10346,8 +10376,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B289" s="2" t="s">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="C289">
@@ -10364,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
         <v>1298</v>
       </c>
@@ -10382,7 +10415,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -10403,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -10424,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -10445,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -10466,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10487,11 +10520,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0</v>
-      </c>
-      <c r="B296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="C296">
@@ -10507,8 +10540,11 @@
         <f>IF(MATCH(B296,'scopus results'!B:B, 0), 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0</v>
       </c>
@@ -10529,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -10550,7 +10586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
@@ -10571,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -10592,7 +10628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
@@ -10613,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10634,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -10655,7 +10691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
@@ -10922,7 +10958,10 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B318" s="2" t="s">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>1256</v>
       </c>
       <c r="C318">
@@ -10982,7 +11021,10 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B321" s="2" t="s">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="C321">
@@ -11126,7 +11168,10 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B328" s="2" t="s">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C328">
@@ -11251,23 +11296,27 @@
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <f>SUM(A2:A333)</f>
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G333">
     <sortCondition ref="C2:C333"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E52" r:id="rId1" xr:uid="{70556A70-9981-49D4-8C2A-697D9DA96029}"/>
+    <hyperlink ref="E58" r:id="rId2" xr:uid="{26D6442F-CBC1-432A-BB46-4A1BD62C45DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C679FFB-D134-431C-9904-2677EE2B5C76}">
-  <dimension ref="A1:I315"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11339,7 +11388,7 @@
     <col min="16130" max="16130" width="74.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>567</v>
       </c>
@@ -11359,7 +11408,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>571</v>
       </c>
@@ -11380,8 +11429,11 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -11410,7 +11462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>573</v>
       </c>
@@ -11435,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>575</v>
       </c>
@@ -11460,7 +11512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>576</v>
       </c>
@@ -11485,7 +11537,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>577</v>
       </c>
@@ -11510,7 +11562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>578</v>
       </c>
@@ -11535,7 +11587,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>579</v>
       </c>
@@ -11560,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>745</v>
       </c>
@@ -11585,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>580</v>
       </c>
@@ -11609,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>748</v>
       </c>
@@ -11633,8 +11685,12 @@
       <c r="G12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>SUM(H:H)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -11659,7 +11715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>583</v>
       </c>
@@ -11682,8 +11738,11 @@
       <c r="G14" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>584</v>
       </c>
@@ -11706,8 +11765,11 @@
       <c r="G15" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>751</v>
       </c>
@@ -11730,8 +11792,11 @@
       <c r="G16" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>753</v>
       </c>
@@ -11756,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>585</v>
       </c>
@@ -11781,7 +11846,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>586</v>
       </c>
@@ -11805,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>756</v>
       </c>
@@ -11830,7 +11895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>759</v>
       </c>
@@ -11855,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>587</v>
       </c>
@@ -11879,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>588</v>
       </c>
@@ -11904,7 +11969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>589</v>
       </c>
@@ -11929,7 +11994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -11952,8 +12017,11 @@
       <c r="G25" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>592</v>
       </c>
@@ -11978,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>762</v>
       </c>
@@ -12003,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>765</v>
       </c>
@@ -12028,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>593</v>
       </c>
@@ -12053,7 +12121,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>594</v>
       </c>
@@ -12078,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>595</v>
       </c>
@@ -12103,7 +12171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>768</v>
       </c>
@@ -12128,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>596</v>
       </c>
@@ -12153,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>597</v>
       </c>
@@ -12178,7 +12246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>599</v>
       </c>
@@ -12203,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>600</v>
       </c>
@@ -12226,8 +12294,11 @@
       <c r="G36" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>771</v>
       </c>
@@ -12252,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>601</v>
       </c>
@@ -12277,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>602</v>
       </c>
@@ -12302,7 +12373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>774</v>
       </c>
@@ -12327,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>604</v>
       </c>
@@ -12352,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>605</v>
       </c>
@@ -12377,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>606</v>
       </c>
@@ -12402,7 +12473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>607</v>
       </c>
@@ -12427,7 +12498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>777</v>
       </c>
@@ -12452,7 +12523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>609</v>
       </c>
@@ -12477,7 +12548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>610</v>
       </c>
@@ -12502,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>611</v>
       </c>
@@ -12527,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>612</v>
       </c>
@@ -12552,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>613</v>
       </c>
@@ -12577,32 +12648,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>780</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>2016</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E51" s="2" t="str">
+      <c r="E51" s="1" t="str">
         <f>HYPERLINK("http://dx.doi.org/10.1071/AN15620","http://dx.doi.org/10.1071/AN15620")</f>
         <v>http://dx.doi.org/10.1071/AN15620</v>
       </c>
-      <c r="F51" s="2" t="e">
+      <c r="F51" s="1" t="e">
         <f>IF(MATCH(B51,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>614</v>
       </c>
@@ -12626,7 +12700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>615</v>
       </c>
@@ -12651,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>616</v>
       </c>
@@ -12676,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>617</v>
       </c>
@@ -12701,7 +12775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>618</v>
       </c>
@@ -12726,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>619</v>
       </c>
@@ -12751,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>620</v>
       </c>
@@ -12776,7 +12850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>783</v>
       </c>
@@ -12801,7 +12875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>621</v>
       </c>
@@ -12825,7 +12899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>786</v>
       </c>
@@ -12850,7 +12924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>622</v>
       </c>
@@ -12875,7 +12949,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>789</v>
       </c>
@@ -12900,7 +12974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>624</v>
       </c>
@@ -12925,7 +12999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>626</v>
       </c>
@@ -12950,7 +13024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>792</v>
       </c>
@@ -12975,7 +13049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>627</v>
       </c>
@@ -13000,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>628</v>
       </c>
@@ -13025,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>629</v>
       </c>
@@ -13050,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>630</v>
       </c>
@@ -13075,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>631</v>
       </c>
@@ -13100,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>632</v>
       </c>
@@ -13125,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>633</v>
       </c>
@@ -13150,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>634</v>
       </c>
@@ -13175,7 +13249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>795</v>
       </c>
@@ -13200,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>798</v>
       </c>
@@ -13225,7 +13299,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>635</v>
       </c>
@@ -13249,8 +13323,11 @@
       <c r="G77" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>637</v>
       </c>
@@ -13275,31 +13352,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>801</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>2018</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F79" s="2" t="e">
+      <c r="F79" s="1" t="e">
         <f>IF(MATCH(B79,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>803</v>
       </c>
@@ -13528,23 +13605,23 @@
       <c r="A89" t="s">
         <v>818</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="1">
         <v>2019</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F89" s="2" t="e">
+      <c r="F89" s="1" t="e">
         <f>IF(MATCH(B89,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="2" t="e">
+      <c r="G89" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -14123,7 +14200,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>654</v>
       </c>
@@ -14148,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>858</v>
       </c>
@@ -14173,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>655</v>
       </c>
@@ -14198,7 +14275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>657</v>
       </c>
@@ -14223,31 +14300,31 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>659</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="1">
         <v>2020</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F117" s="2" t="e">
+      <c r="F117" s="1" t="e">
         <f>IF(MATCH(B117,'scopus results'!B:B, 0), 1, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G117" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>660</v>
       </c>
@@ -14270,8 +14347,11 @@
       <c r="G118" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>861</v>
       </c>
@@ -14296,7 +14376,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>661</v>
       </c>
@@ -14321,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>864</v>
       </c>
@@ -14346,7 +14426,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>867</v>
       </c>
@@ -14371,7 +14451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>870</v>
       </c>
@@ -14396,7 +14476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>873</v>
       </c>
@@ -14421,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>876</v>
       </c>
@@ -14446,7 +14526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>662</v>
       </c>
@@ -14471,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>879</v>
       </c>
@@ -14496,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>882</v>
       </c>
@@ -15720,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>956</v>
       </c>
@@ -15745,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>959</v>
       </c>
@@ -15770,7 +15850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>692</v>
       </c>
@@ -15795,7 +15875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>962</v>
       </c>
@@ -15820,7 +15900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>965</v>
       </c>
@@ -15845,7 +15925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>968</v>
       </c>
@@ -15870,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>694</v>
       </c>
@@ -15895,7 +15975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>971</v>
       </c>
@@ -15920,7 +16000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>974</v>
       </c>
@@ -15945,7 +16025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>696</v>
       </c>
@@ -15970,7 +16050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>977</v>
       </c>
@@ -15995,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>980</v>
       </c>
@@ -16020,7 +16100,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>983</v>
       </c>
@@ -16044,8 +16124,11 @@
       <c r="G189" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>986</v>
       </c>
@@ -16070,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>989</v>
       </c>
@@ -16095,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>992</v>
       </c>
@@ -16120,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>995</v>
       </c>
@@ -16145,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>697</v>
       </c>
@@ -16170,7 +16253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>998</v>
       </c>
@@ -16195,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>698</v>
       </c>
@@ -16220,7 +16303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1001</v>
       </c>
@@ -16245,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>699</v>
       </c>
@@ -16270,7 +16353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>700</v>
       </c>
@@ -16295,7 +16378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1004</v>
       </c>
@@ -16320,7 +16403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1007</v>
       </c>
@@ -16345,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>701</v>
       </c>
@@ -16368,8 +16451,11 @@
       <c r="G202" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1010</v>
       </c>
@@ -16394,7 +16480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1013</v>
       </c>
@@ -16419,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1016</v>
       </c>
@@ -16444,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1019</v>
       </c>
@@ -16469,7 +16555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>702</v>
       </c>
@@ -16494,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1022</v>
       </c>
@@ -18122,7 +18208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1160</v>
       </c>
@@ -18146,8 +18232,11 @@
       <c r="G273" s="2" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1163</v>
       </c>
@@ -18172,7 +18261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1166</v>
       </c>
@@ -18197,7 +18286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>724</v>
       </c>
@@ -18222,7 +18311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>726</v>
       </c>
@@ -18247,7 +18336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1169</v>
       </c>
@@ -18272,7 +18361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1172</v>
       </c>
@@ -18297,7 +18386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1175</v>
       </c>
@@ -18322,7 +18411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1178</v>
       </c>
@@ -18347,7 +18436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1181</v>
       </c>
@@ -18372,7 +18461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1184</v>
       </c>
@@ -18397,7 +18486,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1187</v>
       </c>
@@ -18422,7 +18511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1190</v>
       </c>
@@ -18447,7 +18536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>727</v>
       </c>
@@ -18472,7 +18561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1193</v>
       </c>
@@ -18497,7 +18586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>728</v>
       </c>
